--- a/biology/Zoologie/Exophthalmus/Exophthalmus.xlsx
+++ b/biology/Zoologie/Exophthalmus/Exophthalmus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Exophtalmus, Exophthalmodes, Exopthalmus, Praepodes, Prepodes, Procpodes, Proepodes
 Exophthalmus est un genre de coléoptères appartenant à la famille des Curculionidae qui comprend plus d'une cinquantaine d'espèces.
@@ -512,11 +524,48 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le genre Exophthalmus est décrit par l'entomologiste suédois Carl Johann Schoenherr (1772-1848) en 1823.
-Synonymes
-Exophtalmus
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Exophthalmus est décrit par l'entomologiste suédois Carl Johann Schoenherr (1772-1848) en 1823.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Exophthalmus</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Exophthalmus</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Exophtalmus
 Exophthalmodes Schoenherr, 1823
 Exopthalmus Schauff, 1987
 Praepodes Schoenherr, 1823
@@ -526,33 +575,35 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>Exophthalmus</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Exophthalmus</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (30 août 2014)[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (30 août 2014) :
 E. agrestis
 E. albidus
 E. albolineatus
@@ -598,7 +649,7 @@
 E. viridilineatus
 E. vittatus
 E. vitticollis
-Selon NCBI  (30 août 2014)[2] :
+Selon NCBI  (30 août 2014) :
 E. cinerascens
 E. marginicollis
 E. quadrivittatus
